--- a/DTP Address.xlsx
+++ b/DTP Address.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://apcdeloitte-my.sharepoint.com/personal/roroldan_deloitte_com/Documents/Documents/DTP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FCA1943-4CBA-41AC-BDD9-13B4D493D80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{9FCA1943-4CBA-41AC-BDD9-13B4D493D80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0840714-082D-4BA9-8FB0-C68B7FF955F8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CAA69279-F499-4F07-8BC1-A698A6F63555}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
   <si>
     <t>Name</t>
   </si>
@@ -213,6 +213,12 @@
   </si>
   <si>
     <t>1355 Corregidor St., Brgy. Guadalupe Nuevo, Makati City</t>
+  </si>
+  <si>
+    <t>Angeline L. Rayray</t>
+  </si>
+  <si>
+    <t>1735 Road 3, Bagong Sikat, Punta St., Sta. Ana Manila City</t>
   </si>
 </sst>
 </file>
@@ -588,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82051EDD-8409-4263-9589-BFEFFDF2AB0F}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -857,6 +863,14 @@
         <v>55</v>
       </c>
     </row>
+    <row r="33" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
